--- a/medicine/Sexualité et sexologie/Vaseline/Vaseline.xlsx
+++ b/medicine/Sexualité et sexologie/Vaseline/Vaseline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La vaseline (prononcé en français : [vaz(ə)lin][2] ; ou gelée de pétrole) est, comme la paraffine, un distillat de pétrole. Elle est formée essentiellement d'alcanes, de formule générale (CnH2n+2). Elle est fluide à température ambiante.
-La marque Vaseline appartient à Unilever[3].
+La vaseline (prononcé en français : [vaz(ə)lin] ; ou gelée de pétrole) est, comme la paraffine, un distillat de pétrole. Elle est formée essentiellement d'alcanes, de formule générale (CnH2n+2). Elle est fluide à température ambiante.
+La marque Vaseline appartient à Unilever.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom de marque déposée aux États-Unis par Robert Chesebrough (en), l'inventeur du produit, en 1872, formé de la transcription vas de la syllabe Was de l'allemand : Wasser « eau », du grec elaion « huile, graisse » et du suffixe correspondant au français « -ine ». Depuis, le mot est passé légalement dans le langage courant et figure au dictionnaire en nom commun.
 </t>
@@ -546,56 +560,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lubrifiant, entretien de matériel
-La vaseline est un lubrifiant, servant à faciliter le glissement d'objets en vue de réduire la friction, afin d'en limiter l'échauffement, par exemple l'insertion de vis dans des bois très denses.
+          <t>Lubrifiant, entretien de matériel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vaseline est un lubrifiant, servant à faciliter le glissement d'objets en vue de réduire la friction, afin d'en limiter l'échauffement, par exemple l'insertion de vis dans des bois très denses.
 Elle est aussi utilisée lors des rapports sexuels, par exemple en cas de manque de sécrétions vaginales ou en cas de rapports anaux. Avec un préservatif, la vaseline est toutefois totalement déconseillée car elle rend le latex poreux : un autre lubrifiant sexuel doit donc être utilisé.
 C'est une graisse « propre », incolore et peu adhésive pour les poussières. L'huile de vaseline, plus fluide, est couramment utilisée dans les appareillages électriques, les petits mécanismes comme ceux des machines à coudre, des maquettes radiocommandées, l'entretien du matériel de pêche (moulinets) et de plongée sous-marine, pour protéger les chromes ou pièces polies contre la corrosion, pour lubrifier les armes, serrures, gonds et articulations diverses.
-Usage médical
-La vaseline officinale est un médicament ; il s'agit d'une pommade employée comme traitement d'appoint des lésions d'irritation, de brûlure et de sécheresse cutanée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vaseline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaseline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Usages les plus courants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Usage médical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vaseline officinale est un médicament ; il s'agit d'une pommade employée comme traitement d'appoint des lésions d'irritation, de brûlure et de sécheresse cutanée.
 On l'utilise aussi pour l'entretien des piercings, car elle permet une bonne mobilité des objets en métal (anneaux ou barbells) et facilite les opérations de changement de bijou. De même, elle trouve son utilité pour le remettre aisément, lorsqu'il est nécessaire de le retirer provisoirement pour un examen médical (scanner, radio, etc).
 Son utilisation la plus célèbre est la forme utilisée pour le soin des lèvres et pour le traitement de la chéilite ou de la perlèche. En effet, elle est pratiquement inerte à la peau et n'entre dans aucune réaction chimique. Elle favorise la cicatrisation des lésions par sa propriété à ne pas laisser l'eau s'évaporer ni à y entrer comme dans le cas d'une plaie endo-nasale qui est en permanence humide et donc difficilement cicatrisable ou dans le traitement d'une épistaxis.
 Elle agit comme barrière mécanique contre la pullulation des germes, et la présence de phénols, même à quantité minime, agit comme bactéricide.
 Elle entre dans la composition de la majorité des lotions en cosmétique, utilisée comme excipient.
 Grâce à ses propriétés moléculaires, la vaseline est utilisée comme écran solaire qui filtre certains ultraviolets.
-Additif alimentaire
-La vaseline est reprise en tant qu'additif alimentaire (E905b). Une circulaire ministérielle de 1885 proscrit l'utilisation de la vaseline dans la pâtisserie pour remplacer le beurre ou la graisse, observation faite que la vaseline « n'est pas susceptible de rancir, ce qui […] constitue un grave inconvénient pour le consommateur qui, n'étant pas averti par l'odeur de l'ancienneté du gâteau, est exposé à acheter une pâtisserie où la farine et les œufs ont déjà subi un commencement d'altération » ; que « les gâteaux dans lesquels on a réalisé la substitution de la vaseline au beurre ou à la graisse n'ont pas le même pouvoir alimentaire que les gâteaux ordinaires » ; et que « personne ne peut affirmer que l'ingestion de [cette matière] soit sans inconvénient pour la santé »[4].
-Autres
-En moulage, la vaseline sert à prévenir la polymérisation du latex lors de la fabrication de moules doubles, et sert d'agent de démoulage avec plusieurs matières plastiques.
-Elle sert dans l'artisanat de la corne afin d'"hydrater" les objets en corne.
-La vaseline est utilisée dans les sports de contact comme la boxe pour limiter les saignements, protéger les plaies, et limiter l'apparition et l'élargissement de celles-ci. Elle est aussi utilisée au rugby, pour les mêmes raisons et également pour protéger les oreilles et le visage des avants de la friction lors des phases de mêlée ordonnée ou ouverte.
-Elle peut aussi être utilisée pour protéger les extrémités des volailles (crêtes, pattes, barbillons) face aux risques d'engelures[5].
-Enfin, en concours complet d'équitation, on applique de la vaseline sur les parties du cheval exposées aux obstacles (face avant des antérieurs et des postérieurs) afin de limiter les traumatismes lors des chocs sur les obstacles fixes du cross.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vaseline</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaseline</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sécurité et hygiène</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fortement déconseillé de lubrifier un préservatif à l'aide de vaseline, à cause du risque de dissolution du latex, et donc de rupture du préservatif : l'usage de la vaseline est incompatible avec l'usage d'un préservatif en latex, les dérivés du pétrole, de par leur propriétés de solvants, rendant poreux le latex[6],[7],[8]. En revanche, en l'absence de préservatif, la vaseline constitue un excellent lubrifiant, de bonne viscosité, étant en prime hypoallergénique, hydratant et relativement peu onéreux.
 </t>
         </is>
       </c>
@@ -621,10 +636,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usages les plus courants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Additif alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vaseline est reprise en tant qu'additif alimentaire (E905b). Une circulaire ministérielle de 1885 proscrit l'utilisation de la vaseline dans la pâtisserie pour remplacer le beurre ou la graisse, observation faite que la vaseline « n'est pas susceptible de rancir, ce qui […] constitue un grave inconvénient pour le consommateur qui, n'étant pas averti par l'odeur de l'ancienneté du gâteau, est exposé à acheter une pâtisserie où la farine et les œufs ont déjà subi un commencement d'altération » ; que « les gâteaux dans lesquels on a réalisé la substitution de la vaseline au beurre ou à la graisse n'ont pas le même pouvoir alimentaire que les gâteaux ordinaires » ; et que « personne ne peut affirmer que l'ingestion de [cette matière] soit sans inconvénient pour la santé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vaseline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaseline</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usages les plus courants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En moulage, la vaseline sert à prévenir la polymérisation du latex lors de la fabrication de moules doubles, et sert d'agent de démoulage avec plusieurs matières plastiques.
+Elle sert dans l'artisanat de la corne afin d'"hydrater" les objets en corne.
+La vaseline est utilisée dans les sports de contact comme la boxe pour limiter les saignements, protéger les plaies, et limiter l'apparition et l'élargissement de celles-ci. Elle est aussi utilisée au rugby, pour les mêmes raisons et également pour protéger les oreilles et le visage des avants de la friction lors des phases de mêlée ordonnée ou ouverte.
+Elle peut aussi être utilisée pour protéger les extrémités des volailles (crêtes, pattes, barbillons) face aux risques d'engelures.
+Enfin, en concours complet d'équitation, on applique de la vaseline sur les parties du cheval exposées aux obstacles (face avant des antérieurs et des postérieurs) afin de limiter les traumatismes lors des chocs sur les obstacles fixes du cross.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaseline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaseline</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sécurité et hygiène</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fortement déconseillé de lubrifier un préservatif à l'aide de vaseline, à cause du risque de dissolution du latex, et donc de rupture du préservatif : l'usage de la vaseline est incompatible avec l'usage d'un préservatif en latex, les dérivés du pétrole, de par leur propriétés de solvants, rendant poreux le latex. En revanche, en l'absence de préservatif, la vaseline constitue un excellent lubrifiant, de bonne viscosité, étant en prime hypoallergénique, hydratant et relativement peu onéreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vaseline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaseline</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaseline est le nom d'un personnage de la bande dessinée Magenta.
 </t>
